--- a/ExcelToLua/src/ExcelToLua/ExcelToLua/bin/Debug/Index/INDEX.xlsx
+++ b/ExcelToLua/src/ExcelToLua/ExcelToLua/bin/Debug/Index/INDEX.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D53DD604-69D2-4397-8612-8CFD30C878A2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198AF9BD-9894-4D7E-8AEA-BB88A856FAED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,46 @@
   </si>
   <si>
     <t>值类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr.属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -387,7 +427,7 @@
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="11.25" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
@@ -419,6 +459,58 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToLua/src/ExcelToLua/ExcelToLua/bin/Debug/Index/INDEX.xlsx
+++ b/ExcelToLua/src/ExcelToLua/ExcelToLua/bin/Debug/Index/INDEX.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198AF9BD-9894-4D7E-8AEA-BB88A856FAED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197C482B-EE9C-4467-A0DA-DACB8F16CBDF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>整型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>attr.属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,6 +87,66 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill.技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff.状态效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配数值技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achv.成就</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop.掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -464,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -473,42 +529,146 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
